--- a/result/inspect_female.xlsx
+++ b/result/inspect_female.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +1029,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12_18_education</t>
+          <t>between_12_18_education</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1688,21 +1688,21 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>language_and_cultural_knowledge</t>
+          <t>number_of_jobs</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>~~</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>language_and_cultural_knowledge</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
@@ -1711,7 +1711,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>health</t>
+          <t>facilitators</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>health</t>
+          <t>facilitators</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1734,7 +1734,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>safety_and_stability</t>
+          <t>social_bonds</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>safety_and_stability</t>
+          <t>social_bonds</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1780,7 +1780,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>social_links</t>
+          <t>health</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>social_links</t>
+          <t>health</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1803,7 +1803,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>facilitators</t>
+          <t>employment</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>facilitators</t>
+          <t>employment</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1826,7 +1826,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>social_links</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>social_links</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1849,7 +1849,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>social_bridges</t>
+          <t>housing</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>social_bridges</t>
+          <t>housing</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1872,7 +1872,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>markers_and_means</t>
+          <t>safety_and_stability</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>markers_and_means</t>
+          <t>safety_and_stability</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1895,7 +1895,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>housing</t>
+          <t>social_bridges</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>housing</t>
+          <t>social_bridges</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1918,7 +1918,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>employment</t>
+          <t>markers_and_means</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>employment</t>
+          <t>markers_and_means</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1941,7 +1941,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>foundation</t>
+          <t>language_and_cultural_knowledge</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>foundation</t>
+          <t>language_and_cultural_knowledge</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1964,7 +1964,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>social_bonds</t>
+          <t>social_connections</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>social_bonds</t>
+          <t>social_connections</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1987,7 +1987,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>social_connections</t>
+          <t>education</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>social_connections</t>
+          <t>education</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2010,7 +2010,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>integration</t>
+          <t>foundation</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>integration</t>
+          <t>foundation</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2033,7 +2033,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>improvement_in_6mos</t>
+          <t>integration</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2043,11 +2043,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>improvement_in_6mos</t>
+          <t>integration</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.1159604659893522</v>
+        <v>0.05</v>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
@@ -2056,7 +2056,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>sanitation_of_housing</t>
+          <t>removal_of_religious_barriers</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2066,11 +2066,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>sanitation_of_housing</t>
+          <t>number_of_religious_facilities</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.2577063504568274</v>
+        <v>0</v>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
@@ -2079,7 +2079,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>lt_12_education</t>
+          <t>removal_of_religious_barriers</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2089,10 +2089,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>lt_12_education</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>removal_of_religious_barriers</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.002785509901981952</v>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2100,7 +2102,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>number_of_healthcare_facilities</t>
+          <t>intention_to_leave</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2110,11 +2112,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>number_of_healthcare_facilities</t>
+          <t>intention_to_leave</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.03021266745641316</v>
+        <v>0.3210027835647139</v>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
@@ -2123,7 +2125,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>bond_with_rohingyas_outside</t>
+          <t>number_of_healthcare_facilities</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2133,11 +2135,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>bond_with_rohingyas_outside</t>
+          <t>number_of_healthcare_facilities</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>3.278702714899558</v>
+        <v>0.03021266745641316</v>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
@@ -2146,7 +2148,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>number_of_violence</t>
+          <t>bond_with_neighbors</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2156,11 +2158,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>number_of_violence</t>
+          <t>bond_with_neighbors</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.3291161647107791</v>
+        <v>0.5220516291926115</v>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
@@ -2169,7 +2171,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>12_18_education</t>
+          <t>fear_of_children_safety</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2179,11 +2181,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>12_18_education</t>
+          <t>fear_of_children_safety</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.01109535508443092</v>
+        <v>0.0603061224489797</v>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
@@ -2192,7 +2194,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>trust_on_ngo</t>
+          <t>trust_on_law_enforcement</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2202,11 +2204,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>trust_on_ngo</t>
+          <t>trust_on_law_enforcement</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.1735808391154059</v>
+        <v>0.2277971324031447</v>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
@@ -2215,7 +2217,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>housing_space</t>
+          <t>number_of_religious_facilities</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2225,11 +2227,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>housing_space</t>
+          <t>number_of_religious_facilities</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.5983224694556786</v>
+        <v>0.1444769290920446</v>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
@@ -2238,7 +2240,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>feeling_about_future</t>
+          <t>bond_with_majhis</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2248,11 +2250,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>feeling_about_future</t>
+          <t>bond_with_majhis</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.4930274882182205</v>
+        <v>0.7242702709029056</v>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
@@ -2261,7 +2263,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>marriage_to_host</t>
+          <t>bond_with_rohingyas_outside</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2271,11 +2273,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>marriage_to_host</t>
+          <t>bond_with_rohingyas_outside</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.03560472992030553</v>
+        <v>3.278702714899558</v>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
@@ -2284,7 +2286,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>return_to_home</t>
+          <t>quality_of_education</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2294,11 +2296,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>return_to_home</t>
+          <t>quality_of_education</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.2257663556310289</v>
+        <v>0.5267589853118828</v>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
@@ -2307,7 +2309,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>trust_on_law_enforcement</t>
+          <t>trust_on_ngo</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2317,11 +2319,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>trust_on_law_enforcement</t>
+          <t>trust_on_ngo</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.2277971324031447</v>
+        <v>0.1735808391154059</v>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
@@ -2330,7 +2332,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>cultural_mixability</t>
+          <t>marriage_to_host</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2340,11 +2342,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>cultural_mixability</t>
+          <t>marriage_to_host</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.2575526805669836</v>
+        <v>0.03560472992030553</v>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
@@ -2376,7 +2378,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>quality_of_education</t>
+          <t>income_from_jobs</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2386,11 +2388,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>quality_of_education</t>
+          <t>income_from_jobs</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.5267589853118828</v>
+        <v>0.3085730291836629</v>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
@@ -2399,7 +2401,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>possibility_of_friendship_with_host</t>
+          <t>number_of_violence</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2409,11 +2411,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>possibility_of_friendship_with_host</t>
+          <t>number_of_violence</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.08273275639043064</v>
+        <v>0.3291161647107791</v>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
@@ -2422,7 +2424,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>bond_with_neighbors</t>
+          <t>sanitation_of_housing</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2432,11 +2434,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>bond_with_neighbors</t>
+          <t>sanitation_of_housing</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.5220516291926115</v>
+        <v>0.2577063504568274</v>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
@@ -2445,7 +2447,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>bond_with_majhis</t>
+          <t>friendship_with_host</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2455,11 +2457,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>bond_with_majhis</t>
+          <t>friendship_with_host</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.7242702709029056</v>
+        <v>0.4884446078402755</v>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
@@ -2468,7 +2470,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>psychological_healthcare</t>
+          <t>cultural_mixability</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2478,11 +2480,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>psychological_healthcare</t>
+          <t>cultural_mixability</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.4000591337297629</v>
+        <v>0.2575526805669836</v>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
@@ -2491,7 +2493,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>gt_18_education</t>
+          <t>feeling_about_future</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2501,11 +2503,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>gt_18_education</t>
+          <t>feeling_about_future</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.008333187444197388</v>
+        <v>0.4930274882182205</v>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
@@ -2514,7 +2516,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>quality_of_healthcare</t>
+          <t>possibility_of_friendship_with_host</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2524,11 +2526,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>quality_of_healthcare</t>
+          <t>possibility_of_friendship_with_host</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.4717432195592591</v>
+        <v>0.08273275639043064</v>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
@@ -2537,7 +2539,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>rights_in_home</t>
+          <t>lt_12_education</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2547,12 +2549,10 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>rights_in_home</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>0.3908506114699978</v>
-      </c>
+          <t>lt_12_education</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>removal_of_religious_barriers</t>
+          <t>help_from_ngo</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2570,11 +2570,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>removal_of_religious_barriers</t>
+          <t>help_from_ngo</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.002785509901981952</v>
+        <v>0.1690524403362063</v>
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
@@ -2583,7 +2583,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>help_from_ngo</t>
+          <t>quality_of_healthcare</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2593,11 +2593,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>help_from_ngo</t>
+          <t>quality_of_healthcare</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.1690524403362063</v>
+        <v>0.4717432195592591</v>
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
@@ -2606,7 +2606,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>friendship_with_host</t>
+          <t>housing_space</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2616,11 +2616,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>friendship_with_host</t>
+          <t>housing_space</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.4884446078402755</v>
+        <v>0.5983224694556786</v>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>intention_to_leave</t>
+          <t>between_12_18_education</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2639,11 +2639,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>intention_to_leave</t>
+          <t>between_12_18_education</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.3210027835647139</v>
+        <v>0.01109535508443092</v>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>fear_of_children_safety</t>
+          <t>number_of_jobs</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2662,11 +2662,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>fear_of_children_safety</t>
+          <t>number_of_jobs</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.0603061224489797</v>
+        <v>0.4364886235651805</v>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
@@ -2675,7 +2675,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>income_from_jobs</t>
+          <t>improvement_in_6mos</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2685,11 +2685,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>income_from_jobs</t>
+          <t>improvement_in_6mos</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.3085730291836629</v>
+        <v>0.1159604659893522</v>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>number_of_religious_facilities</t>
+          <t>return_to_home</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2708,11 +2708,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>number_of_religious_facilities</t>
+          <t>return_to_home</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.1444769290920446</v>
+        <v>0.2257663556310289</v>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>number_of_jobs</t>
+          <t>psychological_healthcare</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2731,15 +2731,61 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>number_of_jobs</t>
+          <t>psychological_healthcare</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.4364886235651805</v>
+        <v>0.4000591337297629</v>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>rights_in_home</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>~~</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>rights_in_home</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0.3908506114699978</v>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>gt_18_education</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>~~</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>gt_18_education</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0.008333187444197388</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
